--- a/biology/Biologie cellulaire et moléculaire/ARNtm/ARNtm.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ARNtm/ARNtm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ARNtm (ou ARN 10Sa) est un petit ARN impliqué dans le contrôle qualité des ARNm et de la traduction chez les procaryotes. Son rôle est de permettre le recyclage des ribosomes 70S bloqués en cours de traduction, par exemple parce que l'ARNm a été clivé. Leur intervention permet aussi la libération et la dégradation des protéines incomplètes résultants de la traduction partielle de l'ARNm.
 Son nom indique qu'il possède à la fois des caractéristiques d'un ARN de transfert et celles d'un ARN messager. À l'heure actuelle le gène SsrA qui code l'ARNtm a été retrouvé dans tous les génomes bactériens séquencés, mais pas encore dans un génome eucaryote ou d'archées.
-S'il y absence d'un codon stop sur un ARNm, le ribosome ne peut pas s'en détacher. Le recrutement d'un ARNtm va introduire un codon stop permettant la libération du ribosome de l'ARNm, c'est ce que l'on appelle un phénomène de trans-traduction. Il semblerait que 2 à 4% des traductions bactériennes se terminent par une trans-traduction[1].
+S'il y absence d'un codon stop sur un ARNm, le ribosome ne peut pas s'en détacher. Le recrutement d'un ARNtm va introduire un codon stop permettant la libération du ribosome de l'ARNm, c'est ce que l'on appelle un phénomène de trans-traduction. Il semblerait que 2 à 4% des traductions bactériennes se terminent par une trans-traduction.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ARNtm a les propriétés d'un ARN de transfert en plus de celles d'un ARN messager.
 Le ribosome permet la lecture de l'ARNm jusqu'à son extrémité 3'. Cependant le codon stop permet la capture d'un facteur de relargage qui permettra d'arrêter la synthèse de la protéine. En l'absence de ce codon, le ribosome laisse son site accepteur A libre pendant l'élongation, marquant une pause traductionnelle.
